--- a/docs/动力电缆计算.xlsx
+++ b/docs/动力电缆计算.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03210EF6-D027-4864-A0B7-7E7B68B52480}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C279FF19-CF05-4985-B686-A77DD02A6343}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="动力电缆计算" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="116">
   <si>
     <t>发电机单绕组电流</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -966,14 +966,20 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="hqprint">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4324350" y="1038225"/>
+          <a:off x="4410075" y="857250"/>
           <a:ext cx="466887" cy="612000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1010,7 +1016,13 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="hqprint">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1054,14 +1066,20 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="hqprint">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6467475" y="1028700"/>
+          <a:off x="6553200" y="847725"/>
           <a:ext cx="500588" cy="612000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1098,14 +1116,20 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="hqprint">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7620000" y="1000125"/>
+          <a:off x="7705725" y="819150"/>
           <a:ext cx="503907" cy="612000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1142,14 +1166,20 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="hqprint">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8982075" y="1000125"/>
+          <a:off x="9067800" y="819150"/>
           <a:ext cx="554087" cy="612000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1186,7 +1216,13 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="hqprint">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1230,7 +1266,13 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="hqprint">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1279,7 +1321,13 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="hqprint">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1462,7 +1510,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="953478" y="8619636"/>
+          <a:off x="2487003" y="6686061"/>
           <a:ext cx="1302545" cy="1080000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1782,10 +1830,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K34"/>
+  <dimension ref="A1:K35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1886,7 +1934,7 @@
         <v>13</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>86</v>
+        <v>48</v>
       </c>
       <c r="I6" s="13"/>
       <c r="J6" t="s">
@@ -1905,7 +1953,7 @@
         <v>10</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>62</v>
+        <v>86</v>
       </c>
       <c r="I7" s="13"/>
     </row>
@@ -1921,10 +1969,7 @@
         <v>11</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="H8" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="I8" s="13"/>
       <c r="J8" t="s">
@@ -1940,9 +1985,11 @@
         <v>1</v>
       </c>
       <c r="D9" s="8"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="14" t="s">
-        <v>70</v>
+      <c r="G9" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H9" t="s">
+        <v>49</v>
       </c>
       <c r="I9" s="13"/>
     </row>
@@ -1951,7 +1998,7 @@
       <c r="B10" s="4"/>
       <c r="G10" s="4"/>
       <c r="H10" s="14" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="I10" s="13"/>
     </row>
@@ -1970,7 +2017,7 @@
       </c>
       <c r="G11" s="4"/>
       <c r="H11" s="14" t="s">
-        <v>73</v>
+        <v>51</v>
       </c>
       <c r="I11" s="13"/>
     </row>
@@ -1987,7 +2034,7 @@
       </c>
       <c r="G12" s="4"/>
       <c r="H12" s="14" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="I12" s="13"/>
       <c r="J12" t="s">
@@ -2004,7 +2051,7 @@
       </c>
       <c r="G13" s="4"/>
       <c r="H13" s="14" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I13" s="13"/>
     </row>
@@ -2020,8 +2067,8 @@
         <v>25</v>
       </c>
       <c r="G14" s="4"/>
-      <c r="H14" s="15" t="s">
-        <v>52</v>
+      <c r="H14" s="14" t="s">
+        <v>77</v>
       </c>
       <c r="I14" s="13"/>
       <c r="J14" t="s">
@@ -2040,8 +2087,8 @@
         <v>26</v>
       </c>
       <c r="G15" s="4"/>
-      <c r="H15" s="14" t="s">
-        <v>53</v>
+      <c r="H15" s="15" t="s">
+        <v>52</v>
       </c>
       <c r="I15" s="13"/>
     </row>
@@ -2050,7 +2097,7 @@
       <c r="B16" s="4"/>
       <c r="G16" s="4"/>
       <c r="H16" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I16" s="13"/>
     </row>
@@ -2059,8 +2106,9 @@
       <c r="B17" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="G17" s="4" t="s">
-        <v>48</v>
+      <c r="G17" s="4"/>
+      <c r="H17" s="14" t="s">
+        <v>54</v>
       </c>
       <c r="I17" s="13"/>
     </row>
@@ -2140,7 +2188,7 @@
         <v>10</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>59</v>
+        <v>111</v>
       </c>
       <c r="I21" s="13"/>
       <c r="J21" t="s">
@@ -2159,7 +2207,7 @@
         <v>11</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I22" s="13"/>
       <c r="J22" t="s">
@@ -2169,6 +2217,9 @@
     <row r="23" spans="1:11" ht="15" thickBot="1">
       <c r="A23" s="3"/>
       <c r="B23" s="4"/>
+      <c r="G23" s="4" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="24" spans="1:11" ht="15" thickBot="1">
       <c r="A24" s="23" t="s">
@@ -2219,12 +2270,6 @@
       <c r="F27" t="s">
         <v>32</v>
       </c>
-      <c r="G27" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="H27" t="s">
-        <v>7</v>
-      </c>
     </row>
     <row r="28" spans="1:11" ht="15" thickBot="1">
       <c r="A28" s="23"/>
@@ -2237,42 +2282,50 @@
       <c r="D28" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G28" s="4"/>
+      <c r="G28" s="4" t="s">
+        <v>115</v>
+      </c>
       <c r="H28" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:11">
       <c r="G29" s="4"/>
       <c r="H29" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:11">
       <c r="B30" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="G30" s="6" t="s">
-        <v>29</v>
+      <c r="G30" s="4"/>
+      <c r="H30" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="31" spans="1:11">
       <c r="G31" s="6" t="s">
-        <v>2</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32" spans="1:11">
       <c r="G32" s="6" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="7:7">
       <c r="G33" s="6" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="7:7">
       <c r="G34" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="7:7">
+      <c r="G35" s="6" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2293,8 +2346,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A19" activeCellId="2" sqref="E19 C19 A19"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3776,7 +3829,7 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -4182,8 +4235,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>

--- a/docs/动力电缆计算.xlsx
+++ b/docs/动力电缆计算.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C279FF19-CF05-4985-B686-A77DD02A6343}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E84F910E-1615-4988-BF06-7496C07D7637}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="动力电缆计算" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="114">
   <si>
     <t>发电机单绕组电流</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -200,10 +200,6 @@
   </si>
   <si>
     <t>梯架和线夹等</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>有孔托盘</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -553,13 +549,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>有孔托盘</t>
-  </si>
-  <si>
-    <t>有孔托盘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">1
 </t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -609,6 +598,10 @@
   </si>
   <si>
     <t>电缆类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水平安装的有孔托盘</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1832,8 +1825,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1858,7 +1851,7 @@
         <v>31</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="H1" t="s">
         <v>7</v>
@@ -1900,7 +1893,7 @@
         <v>9</v>
       </c>
       <c r="J4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="15" thickBot="1">
@@ -1912,14 +1905,14 @@
         <v>3</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I5" s="13"/>
       <c r="J5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="15" thickBot="1">
@@ -1934,11 +1927,11 @@
         <v>13</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I6" s="13"/>
       <c r="J6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="15" thickBot="1">
@@ -1953,7 +1946,7 @@
         <v>10</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I7" s="13"/>
     </row>
@@ -1969,27 +1962,27 @@
         <v>11</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I8" s="13"/>
       <c r="J8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="15" thickBot="1">
       <c r="A9" s="11"/>
       <c r="B9" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C9" s="12">
         <v>1</v>
       </c>
       <c r="D9" s="8"/>
       <c r="G9" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I9" s="13"/>
     </row>
@@ -1998,7 +1991,7 @@
       <c r="B10" s="4"/>
       <c r="G10" s="4"/>
       <c r="H10" s="14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I10" s="13"/>
     </row>
@@ -2017,7 +2010,7 @@
       </c>
       <c r="G11" s="4"/>
       <c r="H11" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I11" s="13"/>
     </row>
@@ -2034,11 +2027,11 @@
       </c>
       <c r="G12" s="4"/>
       <c r="H12" s="14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I12" s="13"/>
       <c r="J12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="15" thickBot="1">
@@ -2051,7 +2044,7 @@
       </c>
       <c r="G13" s="4"/>
       <c r="H13" s="14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I13" s="13"/>
     </row>
@@ -2068,11 +2061,11 @@
       </c>
       <c r="G14" s="4"/>
       <c r="H14" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I14" s="13"/>
       <c r="J14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15" thickBot="1">
@@ -2088,7 +2081,7 @@
       </c>
       <c r="G15" s="4"/>
       <c r="H15" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I15" s="13"/>
     </row>
@@ -2097,7 +2090,7 @@
       <c r="B16" s="4"/>
       <c r="G16" s="4"/>
       <c r="H16" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I16" s="13"/>
     </row>
@@ -2108,7 +2101,7 @@
       </c>
       <c r="G17" s="4"/>
       <c r="H17" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I17" s="13"/>
     </row>
@@ -2132,7 +2125,7 @@
         <v>2</v>
       </c>
       <c r="J18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="15" thickBot="1">
@@ -2144,14 +2137,14 @@
         <v>3</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I19" s="13"/>
       <c r="J19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="15" thickBot="1">
@@ -2166,14 +2159,14 @@
         <v>13</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I20" s="13"/>
       <c r="J20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="15" thickBot="1">
@@ -2188,11 +2181,11 @@
         <v>10</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="I21" s="13"/>
       <c r="J21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="15" thickBot="1">
@@ -2207,18 +2200,18 @@
         <v>11</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I22" s="13"/>
       <c r="J22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="15" thickBot="1">
       <c r="A23" s="3"/>
       <c r="B23" s="4"/>
       <c r="G23" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="15" thickBot="1">
@@ -2283,7 +2276,7 @@
         <v>26</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="H28" t="s">
         <v>7</v>
@@ -2347,7 +2340,7 @@
   <dimension ref="A1:L40"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2373,49 +2366,49 @@
     </row>
     <row r="2" spans="1:12" s="2" customFormat="1" ht="42.75">
       <c r="A2" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F2" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="F2" s="19" t="s">
+      <c r="G2" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="G2" s="19" t="s">
-        <v>69</v>
-      </c>
       <c r="H2" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="I2" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="I2" s="19" t="s">
-        <v>72</v>
-      </c>
       <c r="J2" s="19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K2" s="19" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L2" s="19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="61.5" customHeight="1"/>
     <row r="4" spans="1:12">
       <c r="A4" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C4" s="4">
         <v>90</v>
@@ -2433,27 +2426,27 @@
         <v>23</v>
       </c>
       <c r="H4" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="I4" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="J4" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="I4" s="17" t="s">
+      <c r="K4" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="J4" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="K4" s="17" t="s">
-        <v>80</v>
-      </c>
       <c r="L4" s="17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C5" s="4">
         <v>90</v>
@@ -2471,27 +2464,27 @@
         <v>32</v>
       </c>
       <c r="H5" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="I5" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="J5" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="I5" s="17" t="s">
+      <c r="K5" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="L5" s="17" t="s">
         <v>80</v>
-      </c>
-      <c r="J5" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="K5" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="L5" s="17" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C6" s="4">
         <v>90</v>
@@ -2509,27 +2502,27 @@
         <v>42</v>
       </c>
       <c r="H6" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="I6" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="I6" s="17" t="s">
-        <v>82</v>
-      </c>
       <c r="J6" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="K6" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="L6" s="17" t="s">
         <v>80</v>
-      </c>
-      <c r="K6" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="L6" s="17" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C7" s="4">
         <v>90</v>
@@ -2547,27 +2540,27 @@
         <v>54</v>
       </c>
       <c r="H7" s="17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I7" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="J7" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="J7" s="17" t="s">
-        <v>80</v>
-      </c>
       <c r="K7" s="17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L7" s="17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C8" s="4">
         <v>90</v>
@@ -2585,27 +2578,27 @@
         <v>75</v>
       </c>
       <c r="H8" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="I8" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="J8" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="I8" s="17" t="s">
+      <c r="K8" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="J8" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="K8" s="17" t="s">
-        <v>81</v>
-      </c>
       <c r="L8" s="17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C9" s="4">
         <v>90</v>
@@ -2623,27 +2616,27 @@
         <v>100</v>
       </c>
       <c r="H9" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="I9" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="I9" s="17" t="s">
-        <v>81</v>
-      </c>
       <c r="J9" s="17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K9" s="17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L9" s="17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C10" s="4">
         <v>90</v>
@@ -2678,10 +2671,10 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C11" s="4">
         <v>90</v>
@@ -2716,10 +2709,10 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C12" s="4">
         <v>90</v>
@@ -2754,10 +2747,10 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C13" s="4">
         <v>90</v>
@@ -2792,10 +2785,10 @@
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C14" s="4">
         <v>90</v>
@@ -2830,10 +2823,10 @@
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C15" s="4">
         <v>90</v>
@@ -2868,10 +2861,10 @@
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C16" s="4">
         <v>90</v>
@@ -2906,10 +2899,10 @@
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C17" s="4">
         <v>90</v>
@@ -2944,10 +2937,10 @@
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C18" s="4">
         <v>90</v>
@@ -2982,10 +2975,10 @@
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C19" s="4">
         <v>90</v>
@@ -3020,10 +3013,10 @@
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C20" s="4">
         <v>90</v>
@@ -3035,10 +3028,10 @@
         <v>400</v>
       </c>
       <c r="F20" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="G20" s="17" t="s">
         <v>80</v>
-      </c>
-      <c r="G20" s="17" t="s">
-        <v>81</v>
       </c>
       <c r="H20" s="17">
         <v>940</v>
@@ -3058,10 +3051,10 @@
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C21" s="4">
         <v>90</v>
@@ -3073,10 +3066,10 @@
         <v>500</v>
       </c>
       <c r="F21" s="17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G21" s="17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H21" s="17">
         <v>1083</v>
@@ -3096,10 +3089,10 @@
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C22" s="4">
         <v>90</v>
@@ -3111,10 +3104,10 @@
         <v>630</v>
       </c>
       <c r="F22" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="G22" s="17" t="s">
         <v>79</v>
-      </c>
-      <c r="G22" s="17" t="s">
-        <v>80</v>
       </c>
       <c r="H22" s="17">
         <v>1254</v>
@@ -3134,10 +3127,10 @@
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C23" s="4">
         <v>90</v>
@@ -3155,27 +3148,27 @@
         <v>24</v>
       </c>
       <c r="H23" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="I23" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="I23" s="17" t="s">
+      <c r="J23" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="K23" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="L23" s="17" t="s">
         <v>80</v>
-      </c>
-      <c r="J23" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="K23" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="L23" s="17" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="24" spans="1:12">
       <c r="A24" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C24" s="4">
         <v>90</v>
@@ -3193,27 +3186,27 @@
         <v>32</v>
       </c>
       <c r="H24" s="17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I24" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="J24" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="J24" s="17" t="s">
-        <v>81</v>
-      </c>
       <c r="K24" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L24" s="17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="25" spans="1:12">
       <c r="A25" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C25" s="4">
         <v>90</v>
@@ -3231,27 +3224,27 @@
         <v>42</v>
       </c>
       <c r="H25" s="17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I25" s="17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J25" s="17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K25" s="17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L25" s="17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="26" spans="1:12">
       <c r="A26" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C26" s="4">
         <v>90</v>
@@ -3269,27 +3262,27 @@
         <v>58</v>
       </c>
       <c r="H26" s="17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I26" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="J26" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="J26" s="17" t="s">
-        <v>81</v>
-      </c>
       <c r="K26" s="17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L26" s="17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C27" s="4">
         <v>90</v>
@@ -3307,27 +3300,27 @@
         <v>77</v>
       </c>
       <c r="H27" s="17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I27" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="J27" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="K27" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="J27" s="17" t="s">
+      <c r="L27" s="17" t="s">
         <v>80</v>
-      </c>
-      <c r="K27" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="L27" s="17" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="28" spans="1:12">
       <c r="A28" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C28" s="4">
         <v>90</v>
@@ -3362,10 +3355,10 @@
     </row>
     <row r="29" spans="1:12">
       <c r="A29" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C29" s="4">
         <v>90</v>
@@ -3400,10 +3393,10 @@
     </row>
     <row r="30" spans="1:12">
       <c r="A30" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C30" s="4">
         <v>90</v>
@@ -3438,10 +3431,10 @@
     </row>
     <row r="31" spans="1:12">
       <c r="A31" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C31" s="4">
         <v>90</v>
@@ -3476,10 +3469,10 @@
     </row>
     <row r="32" spans="1:12">
       <c r="A32" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C32" s="4">
         <v>90</v>
@@ -3514,10 +3507,10 @@
     </row>
     <row r="33" spans="1:12">
       <c r="A33" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C33" s="4">
         <v>90</v>
@@ -3552,10 +3545,10 @@
     </row>
     <row r="34" spans="1:12">
       <c r="A34" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C34" s="4">
         <v>90</v>
@@ -3590,10 +3583,10 @@
     </row>
     <row r="35" spans="1:12">
       <c r="A35" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C35" s="4">
         <v>90</v>
@@ -3628,10 +3621,10 @@
     </row>
     <row r="36" spans="1:12">
       <c r="A36" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C36" s="4">
         <v>90</v>
@@ -3666,10 +3659,10 @@
     </row>
     <row r="37" spans="1:12">
       <c r="A37" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C37" s="4">
         <v>90</v>
@@ -3704,10 +3697,10 @@
     </row>
     <row r="38" spans="1:12">
       <c r="A38" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C38" s="4">
         <v>90</v>
@@ -3719,10 +3712,10 @@
         <v>400</v>
       </c>
       <c r="F38" s="17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G38" s="17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H38" s="17">
         <v>740</v>
@@ -3742,10 +3735,10 @@
     </row>
     <row r="39" spans="1:12">
       <c r="A39" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C39" s="4">
         <v>90</v>
@@ -3757,10 +3750,10 @@
         <v>500</v>
       </c>
       <c r="F39" s="17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G39" s="17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H39" s="17">
         <v>856</v>
@@ -3780,10 +3773,10 @@
     </row>
     <row r="40" spans="1:12">
       <c r="A40" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C40" s="4">
         <v>90</v>
@@ -3795,10 +3788,10 @@
         <v>630</v>
       </c>
       <c r="F40" s="17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G40" s="17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H40" s="17">
         <v>996</v>
@@ -3829,7 +3822,7 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3847,27 +3840,27 @@
     </row>
     <row r="2" spans="1:6" ht="42.75">
       <c r="A2" s="20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C2" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="E2" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="D2" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="E2" s="20" t="s">
+      <c r="F2" s="20" t="s">
         <v>92</v>
-      </c>
-      <c r="F2" s="20" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B3" s="17">
         <v>10</v>
@@ -3887,7 +3880,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B4" s="17">
         <v>15</v>
@@ -3907,7 +3900,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B5" s="17">
         <v>20</v>
@@ -3927,7 +3920,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B6" s="17">
         <v>25</v>
@@ -3947,7 +3940,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B7" s="17">
         <v>30</v>
@@ -3967,7 +3960,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B8" s="17">
         <v>35</v>
@@ -3987,7 +3980,7 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B9" s="17">
         <v>40</v>
@@ -4007,7 +4000,7 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B10" s="17">
         <v>45</v>
@@ -4027,7 +4020,7 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B11" s="17">
         <v>50</v>
@@ -4047,7 +4040,7 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B12" s="17">
         <v>55</v>
@@ -4067,7 +4060,7 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B13" s="17">
         <v>60</v>
@@ -4087,7 +4080,7 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B14" s="17">
         <v>65</v>
@@ -4107,7 +4100,7 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B15" s="17">
         <v>70</v>
@@ -4127,7 +4120,7 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B16" s="17">
         <v>75</v>
@@ -4147,7 +4140,7 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B17" s="17">
         <v>80</v>
@@ -4167,7 +4160,7 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B18" s="17">
         <v>85</v>
@@ -4187,7 +4180,7 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B19" s="17">
         <v>90</v>
@@ -4207,7 +4200,7 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B20" s="17">
         <v>95</v>
@@ -4235,8 +4228,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -4258,49 +4251,49 @@
     </row>
     <row r="2" spans="1:8" ht="57" customHeight="1">
       <c r="A2" s="20" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C2" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="D2" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="E2" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="F2" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="G2" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="G2" s="20" t="s">
+      <c r="H2" s="20" t="s">
         <v>100</v>
-      </c>
-      <c r="H2" s="20" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="54.75" customHeight="1">
       <c r="A3" s="18" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C3" s="27"/>
       <c r="D3" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="F3" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="G3" s="18" t="s">
         <v>104</v>
-      </c>
-      <c r="E3" s="18" t="s">
-        <v>105</v>
-      </c>
-      <c r="F3" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="G3" s="18" t="s">
-        <v>107</v>
       </c>
       <c r="H3" s="18" t="s">
         <v>38</v>
@@ -4308,10 +4301,10 @@
     </row>
     <row r="4" spans="1:8" ht="32.25" customHeight="1">
       <c r="A4" s="18" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C4" s="28"/>
       <c r="D4" s="18">
@@ -4332,10 +4325,10 @@
     </row>
     <row r="5" spans="1:8" ht="32.25" customHeight="1">
       <c r="A5" s="18" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C5" s="29"/>
       <c r="D5" s="18">
@@ -4359,7 +4352,7 @@
         <v>39</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C6" s="24"/>
       <c r="D6" s="18">
@@ -4372,7 +4365,7 @@
         <v>0.86</v>
       </c>
       <c r="G6" s="18" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="H6" s="18" t="s">
         <v>40</v>
@@ -4383,7 +4376,7 @@
         <v>39</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C7" s="26"/>
       <c r="D7" s="18">
@@ -4396,7 +4389,7 @@
         <v>0.84</v>
       </c>
       <c r="G7" s="18" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="H7" s="18" t="s">
         <v>40</v>
@@ -4407,7 +4400,7 @@
         <v>41</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C8" s="24"/>
       <c r="D8" s="18">
@@ -4431,7 +4424,7 @@
         <v>41</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C9" s="25"/>
       <c r="D9" s="18">
@@ -4455,7 +4448,7 @@
         <v>41</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C10" s="26"/>
       <c r="D10" s="18">
@@ -4475,11 +4468,11 @@
       </c>
     </row>
     <row r="11" spans="1:8" ht="41.25" customHeight="1">
-      <c r="A11" s="17" t="s">
-        <v>42</v>
+      <c r="A11" s="18" t="s">
+        <v>113</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C11" s="24"/>
       <c r="D11" s="18">
@@ -4495,15 +4488,15 @@
         <v>0.96</v>
       </c>
       <c r="H11" s="18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="39" customHeight="1">
-      <c r="A12" s="17" t="s">
-        <v>42</v>
+      <c r="A12" s="18" t="s">
+        <v>113</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C12" s="25"/>
       <c r="D12" s="18">
@@ -4519,15 +4512,15 @@
         <v>0.89</v>
       </c>
       <c r="H12" s="18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="39" customHeight="1">
-      <c r="A13" s="17" t="s">
-        <v>42</v>
+      <c r="A13" s="18" t="s">
+        <v>113</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C13" s="26"/>
       <c r="D13" s="18">
@@ -4543,7 +4536,7 @@
         <v>0.86</v>
       </c>
       <c r="H13" s="18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="64.5" customHeight="1">
@@ -4551,7 +4544,7 @@
         <v>39</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C14" s="24"/>
       <c r="D14" s="18">
@@ -4567,7 +4560,7 @@
         <v>0.89</v>
       </c>
       <c r="H14" s="18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="39.75" customHeight="1">
@@ -4575,7 +4568,7 @@
         <v>39</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C15" s="26"/>
       <c r="D15" s="18">
@@ -4591,15 +4584,15 @@
         <v>0.86</v>
       </c>
       <c r="H15" s="18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="67.5" customHeight="1">
       <c r="A16" s="17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C16" s="24"/>
       <c r="D16" s="18">
@@ -4615,15 +4608,15 @@
         <v>1</v>
       </c>
       <c r="H16" s="18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="29.25" customHeight="1">
       <c r="A17" s="17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B17" s="21" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C17" s="25"/>
       <c r="D17" s="18">
@@ -4639,15 +4632,15 @@
         <v>0.93</v>
       </c>
       <c r="H17" s="18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="33.75" customHeight="1">
       <c r="A18" s="17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C18" s="26"/>
       <c r="D18" s="18">
@@ -4661,7 +4654,7 @@
       </c>
       <c r="G18" s="18"/>
       <c r="H18" s="18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/docs/动力电缆计算.xlsx
+++ b/docs/动力电缆计算.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E84F910E-1615-4988-BF06-7496C07D7637}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F9AF74C-905A-47A7-BCD6-3C07E99B1841}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="动力电缆计算" sheetId="1" r:id="rId1"/>
@@ -120,14 +120,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>D*Z*c</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D*Z-X</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>单绕组电流余量</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -602,6 +594,14 @@
   </si>
   <si>
     <t>水平安装的有孔托盘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D*c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D*Y*a*b-X</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1825,8 +1825,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1845,13 +1845,13 @@
     <row r="1" spans="1:10">
       <c r="B1" s="1"/>
       <c r="D1" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="H1" t="s">
         <v>7</v>
@@ -1861,7 +1861,7 @@
       <c r="B2" s="1"/>
       <c r="G2" s="4"/>
       <c r="H2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="15" thickBot="1">
@@ -1870,12 +1870,12 @@
       </c>
       <c r="G3" s="4"/>
       <c r="H3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15" thickBot="1">
       <c r="A4" s="24" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>0</v>
@@ -1893,7 +1893,7 @@
         <v>9</v>
       </c>
       <c r="J4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="15" thickBot="1">
@@ -1905,14 +1905,14 @@
         <v>3</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I5" s="13"/>
       <c r="J5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="15" thickBot="1">
@@ -1927,11 +1927,11 @@
         <v>13</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I6" s="13"/>
       <c r="J6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="15" thickBot="1">
@@ -1946,7 +1946,7 @@
         <v>10</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I7" s="13"/>
     </row>
@@ -1962,27 +1962,27 @@
         <v>11</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I8" s="13"/>
       <c r="J8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="15" thickBot="1">
       <c r="A9" s="11"/>
       <c r="B9" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C9" s="12">
         <v>1</v>
       </c>
       <c r="D9" s="8"/>
       <c r="G9" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I9" s="13"/>
     </row>
@@ -1991,13 +1991,13 @@
       <c r="B10" s="4"/>
       <c r="G10" s="4"/>
       <c r="H10" s="14" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="I10" s="13"/>
     </row>
     <row r="11" spans="1:10" ht="15" thickBot="1">
       <c r="A11" s="23" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>15</v>
@@ -2010,7 +2010,7 @@
       </c>
       <c r="G11" s="4"/>
       <c r="H11" s="14" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I11" s="13"/>
     </row>
@@ -2027,11 +2027,11 @@
       </c>
       <c r="G12" s="4"/>
       <c r="H12" s="14" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I12" s="13"/>
       <c r="J12" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="15" thickBot="1">
@@ -2040,48 +2040,48 @@
         <v>19</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>21</v>
+        <v>112</v>
       </c>
       <c r="G13" s="4"/>
       <c r="H13" s="14" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I13" s="13"/>
     </row>
     <row r="14" spans="1:10" ht="15" thickBot="1">
       <c r="A14" s="23"/>
       <c r="B14" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="G14" s="4"/>
       <c r="H14" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I14" s="13"/>
       <c r="J14" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15" thickBot="1">
       <c r="A15" s="23"/>
       <c r="B15" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="G15" s="4"/>
       <c r="H15" s="15" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I15" s="13"/>
     </row>
@@ -2090,27 +2090,27 @@
       <c r="B16" s="4"/>
       <c r="G16" s="4"/>
       <c r="H16" s="14" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I16" s="13"/>
     </row>
     <row r="17" spans="1:11" ht="15" thickBot="1">
       <c r="A17" s="3"/>
       <c r="B17" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G17" s="4"/>
       <c r="H17" s="14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I17" s="13"/>
     </row>
     <row r="18" spans="1:11" ht="15" thickBot="1">
       <c r="A18" s="24" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>9</v>
@@ -2125,7 +2125,7 @@
         <v>2</v>
       </c>
       <c r="J18" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="15" thickBot="1">
@@ -2137,14 +2137,14 @@
         <v>3</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I19" s="13"/>
       <c r="J19" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="15" thickBot="1">
@@ -2159,14 +2159,14 @@
         <v>13</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I20" s="13"/>
       <c r="J20" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K20" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="15" thickBot="1">
@@ -2181,11 +2181,11 @@
         <v>10</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="I21" s="13"/>
       <c r="J21" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="15" thickBot="1">
@@ -2200,23 +2200,23 @@
         <v>11</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I22" s="13"/>
       <c r="J22" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="15" thickBot="1">
       <c r="A23" s="3"/>
       <c r="B23" s="4"/>
       <c r="G23" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="15" thickBot="1">
       <c r="A24" s="23" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B24" s="6" t="s">
         <v>15</v>
@@ -2246,37 +2246,37 @@
         <v>19</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>21</v>
+        <v>112</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="15" thickBot="1">
       <c r="A27" s="23"/>
       <c r="B27" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C27" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="F27" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="15" thickBot="1">
       <c r="A28" s="23"/>
       <c r="B28" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D28" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C28" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="G28" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="H28" t="s">
         <v>7</v>
@@ -2285,21 +2285,21 @@
     <row r="29" spans="1:11">
       <c r="G29" s="4"/>
       <c r="H29" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30" spans="1:11">
       <c r="B30" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G30" s="4"/>
       <c r="H30" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="31" spans="1:11">
       <c r="G31" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -2339,7 +2339,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L40"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
@@ -2361,54 +2361,54 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="2" customFormat="1" ht="42.75">
       <c r="A2" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C2" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="G2" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="F2" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="G2" s="19" t="s">
+      <c r="H2" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="H2" s="19" t="s">
-        <v>70</v>
-      </c>
       <c r="I2" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="J2" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="J2" s="19" t="s">
+      <c r="K2" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="K2" s="19" t="s">
+      <c r="L2" s="19" t="s">
         <v>75</v>
-      </c>
-      <c r="L2" s="19" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="61.5" customHeight="1"/>
     <row r="4" spans="1:12">
       <c r="A4" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C4" s="4">
         <v>90</v>
@@ -2426,27 +2426,27 @@
         <v>23</v>
       </c>
       <c r="H4" s="17" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I4" s="17" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="J4" s="17" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K4" s="17" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="L4" s="17" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C5" s="4">
         <v>90</v>
@@ -2464,27 +2464,27 @@
         <v>32</v>
       </c>
       <c r="H5" s="17" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I5" s="17" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J5" s="17" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K5" s="17" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="L5" s="17" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C6" s="4">
         <v>90</v>
@@ -2502,27 +2502,27 @@
         <v>42</v>
       </c>
       <c r="H6" s="17" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I6" s="17" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="J6" s="17" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K6" s="17" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="L6" s="17" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C7" s="4">
         <v>90</v>
@@ -2540,27 +2540,27 @@
         <v>54</v>
       </c>
       <c r="H7" s="17" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I7" s="17" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="J7" s="17" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K7" s="17" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="L7" s="17" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C8" s="4">
         <v>90</v>
@@ -2578,27 +2578,27 @@
         <v>75</v>
       </c>
       <c r="H8" s="17" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I8" s="17" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J8" s="17" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K8" s="17" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="L8" s="17" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C9" s="4">
         <v>90</v>
@@ -2616,27 +2616,27 @@
         <v>100</v>
       </c>
       <c r="H9" s="17" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I9" s="17" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="J9" s="17" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K9" s="17" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="L9" s="17" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C10" s="4">
         <v>90</v>
@@ -2671,10 +2671,10 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C11" s="4">
         <v>90</v>
@@ -2709,10 +2709,10 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C12" s="4">
         <v>90</v>
@@ -2747,10 +2747,10 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C13" s="4">
         <v>90</v>
@@ -2785,10 +2785,10 @@
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C14" s="4">
         <v>90</v>
@@ -2823,10 +2823,10 @@
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C15" s="4">
         <v>90</v>
@@ -2861,10 +2861,10 @@
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C16" s="4">
         <v>90</v>
@@ -2899,10 +2899,10 @@
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C17" s="4">
         <v>90</v>
@@ -2937,10 +2937,10 @@
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C18" s="4">
         <v>90</v>
@@ -2975,10 +2975,10 @@
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C19" s="4">
         <v>90</v>
@@ -3013,10 +3013,10 @@
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C20" s="4">
         <v>90</v>
@@ -3028,10 +3028,10 @@
         <v>400</v>
       </c>
       <c r="F20" s="17" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G20" s="17" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H20" s="17">
         <v>940</v>
@@ -3051,10 +3051,10 @@
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C21" s="4">
         <v>90</v>
@@ -3066,10 +3066,10 @@
         <v>500</v>
       </c>
       <c r="F21" s="17" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G21" s="17" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H21" s="17">
         <v>1083</v>
@@ -3089,10 +3089,10 @@
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C22" s="4">
         <v>90</v>
@@ -3104,10 +3104,10 @@
         <v>630</v>
       </c>
       <c r="F22" s="17" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G22" s="17" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H22" s="17">
         <v>1254</v>
@@ -3127,10 +3127,10 @@
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C23" s="4">
         <v>90</v>
@@ -3148,27 +3148,27 @@
         <v>24</v>
       </c>
       <c r="H23" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="I23" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="J23" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="K23" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="L23" s="17" t="s">
         <v>78</v>
-      </c>
-      <c r="I23" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="J23" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="K23" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="L23" s="17" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="24" spans="1:12">
       <c r="A24" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C24" s="4">
         <v>90</v>
@@ -3186,27 +3186,27 @@
         <v>32</v>
       </c>
       <c r="H24" s="17" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I24" s="17" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J24" s="17" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K24" s="17" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="L24" s="17" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="25" spans="1:12">
       <c r="A25" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C25" s="4">
         <v>90</v>
@@ -3224,27 +3224,27 @@
         <v>42</v>
       </c>
       <c r="H25" s="17" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I25" s="17" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="J25" s="17" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K25" s="17" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="L25" s="17" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="26" spans="1:12">
       <c r="A26" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C26" s="4">
         <v>90</v>
@@ -3262,27 +3262,27 @@
         <v>58</v>
       </c>
       <c r="H26" s="17" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I26" s="17" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J26" s="17" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K26" s="17" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="L26" s="17" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C27" s="4">
         <v>90</v>
@@ -3300,27 +3300,27 @@
         <v>77</v>
       </c>
       <c r="H27" s="17" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I27" s="17" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J27" s="17" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K27" s="17" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="L27" s="17" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="28" spans="1:12">
       <c r="A28" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C28" s="4">
         <v>90</v>
@@ -3355,10 +3355,10 @@
     </row>
     <row r="29" spans="1:12">
       <c r="A29" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C29" s="4">
         <v>90</v>
@@ -3393,10 +3393,10 @@
     </row>
     <row r="30" spans="1:12">
       <c r="A30" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C30" s="4">
         <v>90</v>
@@ -3431,10 +3431,10 @@
     </row>
     <row r="31" spans="1:12">
       <c r="A31" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C31" s="4">
         <v>90</v>
@@ -3469,10 +3469,10 @@
     </row>
     <row r="32" spans="1:12">
       <c r="A32" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C32" s="4">
         <v>90</v>
@@ -3507,10 +3507,10 @@
     </row>
     <row r="33" spans="1:12">
       <c r="A33" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C33" s="4">
         <v>90</v>
@@ -3545,10 +3545,10 @@
     </row>
     <row r="34" spans="1:12">
       <c r="A34" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C34" s="4">
         <v>90</v>
@@ -3583,10 +3583,10 @@
     </row>
     <row r="35" spans="1:12">
       <c r="A35" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C35" s="4">
         <v>90</v>
@@ -3621,10 +3621,10 @@
     </row>
     <row r="36" spans="1:12">
       <c r="A36" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C36" s="4">
         <v>90</v>
@@ -3659,10 +3659,10 @@
     </row>
     <row r="37" spans="1:12">
       <c r="A37" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C37" s="4">
         <v>90</v>
@@ -3697,10 +3697,10 @@
     </row>
     <row r="38" spans="1:12">
       <c r="A38" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C38" s="4">
         <v>90</v>
@@ -3712,10 +3712,10 @@
         <v>400</v>
       </c>
       <c r="F38" s="17" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G38" s="17" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H38" s="17">
         <v>740</v>
@@ -3735,10 +3735,10 @@
     </row>
     <row r="39" spans="1:12">
       <c r="A39" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C39" s="4">
         <v>90</v>
@@ -3750,10 +3750,10 @@
         <v>500</v>
       </c>
       <c r="F39" s="17" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G39" s="17" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H39" s="17">
         <v>856</v>
@@ -3773,10 +3773,10 @@
     </row>
     <row r="40" spans="1:12">
       <c r="A40" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C40" s="4">
         <v>90</v>
@@ -3788,10 +3788,10 @@
         <v>630</v>
       </c>
       <c r="F40" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="G40" s="17" t="s">
         <v>78</v>
-      </c>
-      <c r="G40" s="17" t="s">
-        <v>80</v>
       </c>
       <c r="H40" s="17">
         <v>996</v>
@@ -3822,7 +3822,7 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3835,32 +3835,32 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="42.75">
       <c r="A2" s="20" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C2" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="F2" s="20" t="s">
         <v>90</v>
-      </c>
-      <c r="D2" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="E2" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="F2" s="20" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B3" s="17">
         <v>10</v>
@@ -3880,7 +3880,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B4" s="17">
         <v>15</v>
@@ -3900,7 +3900,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B5" s="17">
         <v>20</v>
@@ -3920,7 +3920,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B6" s="17">
         <v>25</v>
@@ -3940,7 +3940,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B7" s="17">
         <v>30</v>
@@ -3960,7 +3960,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B8" s="17">
         <v>35</v>
@@ -3980,7 +3980,7 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B9" s="17">
         <v>40</v>
@@ -4000,7 +4000,7 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B10" s="17">
         <v>45</v>
@@ -4020,7 +4020,7 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B11" s="17">
         <v>50</v>
@@ -4040,7 +4040,7 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B12" s="17">
         <v>55</v>
@@ -4060,7 +4060,7 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B13" s="17">
         <v>60</v>
@@ -4080,19 +4080,19 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B14" s="17">
         <v>65</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D14" s="17">
         <v>0.65</v>
       </c>
       <c r="E14" s="17" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F14" s="17">
         <v>0.7</v>
@@ -4100,19 +4100,19 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B15" s="17">
         <v>70</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D15" s="17">
         <v>0.57999999999999996</v>
       </c>
       <c r="E15" s="17" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F15" s="17">
         <v>0.65</v>
@@ -4120,19 +4120,19 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B16" s="17">
         <v>75</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D16" s="17">
         <v>0.5</v>
       </c>
       <c r="E16" s="17" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F16" s="17">
         <v>0.6</v>
@@ -4140,19 +4140,19 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B17" s="17">
         <v>80</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D17" s="17">
         <v>0.41</v>
       </c>
       <c r="E17" s="17" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F17" s="17">
         <v>0.54</v>
@@ -4160,19 +4160,19 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B18" s="17">
         <v>85</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E18" s="17" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F18" s="17">
         <v>0.47</v>
@@ -4180,19 +4180,19 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B19" s="17">
         <v>90</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E19" s="17" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F19" s="17">
         <v>0.4</v>
@@ -4200,19 +4200,19 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B20" s="17">
         <v>95</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E20" s="17" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F20" s="17">
         <v>0.32</v>
@@ -4228,8 +4228,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -4245,66 +4245,66 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B1" s="9"/>
     </row>
     <row r="2" spans="1:8" ht="57" customHeight="1">
       <c r="A2" s="20" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C2" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="E2" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="F2" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="G2" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="H2" s="20" t="s">
         <v>98</v>
-      </c>
-      <c r="G2" s="20" t="s">
-        <v>99</v>
-      </c>
-      <c r="H2" s="20" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="54.75" customHeight="1">
       <c r="A3" s="18" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C3" s="27"/>
       <c r="D3" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="F3" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="G3" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="F3" s="18" t="s">
-        <v>103</v>
-      </c>
-      <c r="G3" s="18" t="s">
-        <v>104</v>
-      </c>
       <c r="H3" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="32.25" customHeight="1">
       <c r="A4" s="18" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C4" s="28"/>
       <c r="D4" s="18">
@@ -4320,15 +4320,15 @@
         <v>0.81</v>
       </c>
       <c r="H4" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="32.25" customHeight="1">
       <c r="A5" s="18" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C5" s="29"/>
       <c r="D5" s="18">
@@ -4344,15 +4344,15 @@
         <v>0.78</v>
       </c>
       <c r="H5" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="49.5" customHeight="1">
       <c r="A6" s="18" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C6" s="24"/>
       <c r="D6" s="18">
@@ -4365,18 +4365,18 @@
         <v>0.86</v>
       </c>
       <c r="G6" s="18" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="H6" s="18" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="39" customHeight="1">
       <c r="A7" s="18" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C7" s="26"/>
       <c r="D7" s="18">
@@ -4389,18 +4389,18 @@
         <v>0.84</v>
       </c>
       <c r="G7" s="18" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H7" s="18" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="56.25" customHeight="1">
       <c r="A8" s="17" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C8" s="24"/>
       <c r="D8" s="18">
@@ -4416,15 +4416,15 @@
         <v>0.96</v>
       </c>
       <c r="H8" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="35.25" customHeight="1">
       <c r="A9" s="17" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C9" s="25"/>
       <c r="D9" s="18">
@@ -4440,15 +4440,15 @@
         <v>0.89</v>
       </c>
       <c r="H9" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="35.25" customHeight="1">
       <c r="A10" s="17" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C10" s="26"/>
       <c r="D10" s="18">
@@ -4464,15 +4464,15 @@
         <v>0.86</v>
       </c>
       <c r="H10" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="41.25" customHeight="1">
       <c r="A11" s="18" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C11" s="24"/>
       <c r="D11" s="18">
@@ -4488,15 +4488,15 @@
         <v>0.96</v>
       </c>
       <c r="H11" s="18" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="39" customHeight="1">
       <c r="A12" s="18" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C12" s="25"/>
       <c r="D12" s="18">
@@ -4512,15 +4512,15 @@
         <v>0.89</v>
       </c>
       <c r="H12" s="18" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="39" customHeight="1">
       <c r="A13" s="18" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C13" s="26"/>
       <c r="D13" s="18">
@@ -4536,15 +4536,15 @@
         <v>0.86</v>
       </c>
       <c r="H13" s="18" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="64.5" customHeight="1">
       <c r="A14" s="18" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C14" s="24"/>
       <c r="D14" s="18">
@@ -4560,15 +4560,15 @@
         <v>0.89</v>
       </c>
       <c r="H14" s="18" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="39.75" customHeight="1">
       <c r="A15" s="18" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C15" s="26"/>
       <c r="D15" s="18">
@@ -4584,15 +4584,15 @@
         <v>0.86</v>
       </c>
       <c r="H15" s="18" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="67.5" customHeight="1">
       <c r="A16" s="17" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C16" s="24"/>
       <c r="D16" s="18">
@@ -4608,15 +4608,15 @@
         <v>1</v>
       </c>
       <c r="H16" s="18" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="29.25" customHeight="1">
       <c r="A17" s="17" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B17" s="21" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C17" s="25"/>
       <c r="D17" s="18">
@@ -4632,15 +4632,15 @@
         <v>0.93</v>
       </c>
       <c r="H17" s="18" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="33.75" customHeight="1">
       <c r="A18" s="17" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C18" s="26"/>
       <c r="D18" s="18">
@@ -4654,7 +4654,7 @@
       </c>
       <c r="G18" s="18"/>
       <c r="H18" s="18" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/docs/动力电缆计算.xlsx
+++ b/docs/动力电缆计算.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F9AF74C-905A-47A7-BCD6-3C07E99B1841}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4351ED34-68DA-4E71-BDE5-2C04CFF003F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="124">
   <si>
     <t>发电机单绕组电流</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -602,6 +602,46 @@
   </si>
   <si>
     <t>D*Y*a*b-X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>paraC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>paraA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>paraB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ParaY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>paraX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>paraZ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>paraD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>paraE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>paraF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>paraP</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1826,7 +1866,7 @@
   <dimension ref="A1:K35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1886,6 +1926,9 @@
       <c r="D4" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="E4" t="s">
+        <v>118</v>
+      </c>
       <c r="G4" s="4" t="s">
         <v>0</v>
       </c>
@@ -1907,6 +1950,9 @@
       <c r="D5" s="8" t="s">
         <v>108</v>
       </c>
+      <c r="E5" t="s">
+        <v>117</v>
+      </c>
       <c r="G5" s="4" t="s">
         <v>58</v>
       </c>
@@ -1926,6 +1972,9 @@
       <c r="D6" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="E6" t="s">
+        <v>114</v>
+      </c>
       <c r="G6" s="4" t="s">
         <v>45</v>
       </c>
@@ -1945,6 +1994,9 @@
       <c r="D7" s="8" t="s">
         <v>10</v>
       </c>
+      <c r="E7" t="s">
+        <v>115</v>
+      </c>
       <c r="G7" s="4" t="s">
         <v>83</v>
       </c>
@@ -1960,6 +2012,9 @@
       </c>
       <c r="D8" s="8" t="s">
         <v>11</v>
+      </c>
+      <c r="E8" t="s">
+        <v>116</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>59</v>
@@ -2008,6 +2063,9 @@
       <c r="D11" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="E11" t="s">
+        <v>119</v>
+      </c>
       <c r="G11" s="4"/>
       <c r="H11" s="14" t="s">
         <v>48</v>
@@ -2025,6 +2083,9 @@
       <c r="D12" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="E12" t="s">
+        <v>120</v>
+      </c>
       <c r="G12" s="4"/>
       <c r="H12" s="14" t="s">
         <v>70</v>
@@ -2042,6 +2103,9 @@
       <c r="C13" s="7" t="s">
         <v>112</v>
       </c>
+      <c r="E13" t="s">
+        <v>122</v>
+      </c>
       <c r="G13" s="4"/>
       <c r="H13" s="14" t="s">
         <v>72</v>
@@ -2059,6 +2123,9 @@
       <c r="D14" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="E14" t="s">
+        <v>121</v>
+      </c>
       <c r="G14" s="4"/>
       <c r="H14" s="14" t="s">
         <v>74</v>
@@ -2078,6 +2145,9 @@
       </c>
       <c r="D15" s="1" t="s">
         <v>24</v>
+      </c>
+      <c r="E15" t="s">
+        <v>123</v>
       </c>
       <c r="G15" s="4"/>
       <c r="H15" s="15" t="s">
@@ -2339,8 +2409,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L40"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1:K1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3822,7 +3892,7 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -4228,8 +4298,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>

--- a/docs/动力电缆计算.xlsx
+++ b/docs/动力电缆计算.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4351ED34-68DA-4E71-BDE5-2C04CFF003F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00FA41AF-15C3-4AF4-B031-CD064AB5EFCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1866,7 +1866,7 @@
   <dimension ref="A1:K35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
